--- a/data/134/DEUSTATIS/old/Foreign trade - EGW1 codes.xlsx
+++ b/data/134/DEUSTATIS/old/Foreign trade - EGW1 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="43">
   <si>
     <t>Exports and imports (foreign trade): Germany, months,
 classifications of trading goods</t>
@@ -142,7 +142,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:14:53</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:10:51</t>
   </si>
 </sst>
 </file>
@@ -8113,19 +8113,19 @@
         <v>14</v>
       </c>
       <c r="D307" t="n" s="10">
-        <v>6253727.0</v>
+        <v>6342649.0</v>
       </c>
       <c r="E307" t="n" s="10">
-        <v>1348689.0</v>
+        <v>1358371.0</v>
       </c>
       <c r="F307" t="n" s="10">
-        <v>9.7845624E7</v>
+        <v>9.8665713E7</v>
       </c>
       <c r="G307" t="n" s="10">
-        <v>5565407.0</v>
+        <v>5595634.0</v>
       </c>
       <c r="H307" t="n" s="10">
-        <v>9.0931529E7</v>
+        <v>9.1711708E7</v>
       </c>
     </row>
     <row r="308">
@@ -8136,19 +8136,19 @@
         <v>14</v>
       </c>
       <c r="D308" t="n" s="10">
-        <v>7445780.0</v>
+        <v>7557532.0</v>
       </c>
       <c r="E308" t="n" s="10">
-        <v>7034431.0</v>
+        <v>7003142.0</v>
       </c>
       <c r="F308" t="n" s="10">
-        <v>8.0391326E7</v>
+        <v>8.1644258E7</v>
       </c>
       <c r="G308" t="n" s="10">
-        <v>6403573.0</v>
+        <v>6445606.0</v>
       </c>
       <c r="H308" t="n" s="10">
-        <v>6.6953322E7</v>
+        <v>6.819551E7</v>
       </c>
     </row>
     <row r="309">
@@ -8162,19 +8162,19 @@
         <v>14</v>
       </c>
       <c r="D309" t="n" s="10">
-        <v>6312868.0</v>
+        <v>6396312.0</v>
       </c>
       <c r="E309" t="n" s="10">
-        <v>1539400.0</v>
+        <v>1544585.0</v>
       </c>
       <c r="F309" t="n" s="10">
-        <v>1.00740971E8</v>
+        <v>1.00941191E8</v>
       </c>
       <c r="G309" t="n" s="10">
-        <v>5645175.0</v>
+        <v>5677553.0</v>
       </c>
       <c r="H309" t="n" s="10">
-        <v>9.3556396E7</v>
+        <v>9.3719053E7</v>
       </c>
     </row>
     <row r="310">
@@ -8185,19 +8185,19 @@
         <v>14</v>
       </c>
       <c r="D310" t="n" s="10">
-        <v>7442459.0</v>
+        <v>7519969.0</v>
       </c>
       <c r="E310" t="n" s="10">
-        <v>6629197.0</v>
+        <v>6643999.0</v>
       </c>
       <c r="F310" t="n" s="10">
-        <v>7.6640937E7</v>
+        <v>7.7852378E7</v>
       </c>
       <c r="G310" t="n" s="10">
-        <v>6009789.0</v>
+        <v>6036411.0</v>
       </c>
       <c r="H310" t="n" s="10">
-        <v>6.4001951E7</v>
+        <v>6.5171969E7</v>
       </c>
     </row>
     <row r="311">
@@ -8211,19 +8211,19 @@
         <v>14</v>
       </c>
       <c r="D311" t="n" s="10">
-        <v>6778767.0</v>
+        <v>6851925.0</v>
       </c>
       <c r="E311" t="n" s="10">
-        <v>1471514.0</v>
+        <v>1478163.0</v>
       </c>
       <c r="F311" t="n" s="10">
-        <v>1.0037186E8</v>
+        <v>1.00930668E8</v>
       </c>
       <c r="G311" t="n" s="10">
-        <v>5326019.0</v>
+        <v>5350159.0</v>
       </c>
       <c r="H311" t="n" s="10">
-        <v>9.3574327E7</v>
+        <v>9.4102346E7</v>
       </c>
     </row>
     <row r="312">
@@ -8234,19 +8234,19 @@
         <v>14</v>
       </c>
       <c r="D312" t="n" s="10">
-        <v>8140577.0</v>
+        <v>8217515.0</v>
       </c>
       <c r="E312" t="n" s="10">
-        <v>5855996.0</v>
+        <v>5873397.0</v>
       </c>
       <c r="F312" t="n" s="10">
-        <v>7.9534006E7</v>
+        <v>8.0812684E7</v>
       </c>
       <c r="G312" t="n" s="10">
-        <v>7029800.0</v>
+        <v>7056749.0</v>
       </c>
       <c r="H312" t="n" s="10">
-        <v>6.6648209E7</v>
+        <v>6.7882539E7</v>
       </c>
     </row>
     <row r="313">
@@ -8260,19 +8260,19 @@
         <v>14</v>
       </c>
       <c r="D313" t="n" s="10">
-        <v>5883875.0</v>
+        <v>5925028.0</v>
       </c>
       <c r="E313" t="n" s="10">
-        <v>961177.0</v>
+        <v>965135.0</v>
       </c>
       <c r="F313" t="n" s="10">
-        <v>6.8677865E7</v>
+        <v>6.8950973E7</v>
       </c>
       <c r="G313" t="n" s="10">
-        <v>4153352.0</v>
+        <v>4161389.0</v>
       </c>
       <c r="H313" t="n" s="10">
-        <v>6.3563336E7</v>
+        <v>6.3824449E7</v>
       </c>
     </row>
     <row r="314">
@@ -8283,19 +8283,19 @@
         <v>14</v>
       </c>
       <c r="D314" t="n" s="10">
-        <v>7706909.0</v>
+        <v>7767311.0</v>
       </c>
       <c r="E314" t="n" s="10">
-        <v>3822390.0</v>
+        <v>3761798.0</v>
       </c>
       <c r="F314" t="n" s="10">
-        <v>6.1668503E7</v>
+        <v>6.2094544E7</v>
       </c>
       <c r="G314" t="n" s="10">
-        <v>5630009.0</v>
+        <v>5643688.0</v>
       </c>
       <c r="H314" t="n" s="10">
-        <v>5.2216104E7</v>
+        <v>5.2689059E7</v>
       </c>
     </row>
     <row r="315">
@@ -8309,19 +8309,19 @@
         <v>14</v>
       </c>
       <c r="D315" t="n" s="10">
-        <v>5626398.0</v>
+        <v>5664021.0</v>
       </c>
       <c r="E315" t="n" s="10">
-        <v>896249.0</v>
+        <v>901355.0</v>
       </c>
       <c r="F315" t="n" s="10">
-        <v>7.3351687E7</v>
+        <v>7.375507E7</v>
       </c>
       <c r="G315" t="n" s="10">
-        <v>3911768.0</v>
+        <v>3939591.0</v>
       </c>
       <c r="H315" t="n" s="10">
-        <v>6.854367E7</v>
+        <v>6.8914124E7</v>
       </c>
     </row>
     <row r="316">
@@ -8332,19 +8332,19 @@
         <v>14</v>
       </c>
       <c r="D316" t="n" s="10">
-        <v>7320878.0</v>
+        <v>7366936.0</v>
       </c>
       <c r="E316" t="n" s="10">
-        <v>3757917.0</v>
+        <v>3774972.0</v>
       </c>
       <c r="F316" t="n" s="10">
-        <v>6.2581357E7</v>
+        <v>6.3122497E7</v>
       </c>
       <c r="G316" t="n" s="10">
-        <v>4442154.0</v>
+        <v>4471085.0</v>
       </c>
       <c r="H316" t="n" s="10">
-        <v>5.4381286E7</v>
+        <v>5.487644E7</v>
       </c>
     </row>
     <row r="317">
@@ -8358,19 +8358,19 @@
         <v>14</v>
       </c>
       <c r="D317" t="n" s="10">
-        <v>5784871.0</v>
+        <v>5807532.0</v>
       </c>
       <c r="E317" t="n" s="10">
-        <v>932429.0</v>
+        <v>935440.0</v>
       </c>
       <c r="F317" t="n" s="10">
-        <v>8.8499579E7</v>
+        <v>8.8696001E7</v>
       </c>
       <c r="G317" t="n" s="10">
-        <v>4346222.0</v>
+        <v>4356711.0</v>
       </c>
       <c r="H317" t="n" s="10">
-        <v>8.3220928E7</v>
+        <v>8.340385E7</v>
       </c>
     </row>
     <row r="318">
@@ -8381,19 +8381,19 @@
         <v>14</v>
       </c>
       <c r="D318" t="n" s="10">
-        <v>7220120.0</v>
+        <v>7269040.0</v>
       </c>
       <c r="E318" t="n" s="10">
-        <v>3806236.0</v>
+        <v>3828543.0</v>
       </c>
       <c r="F318" t="n" s="10">
-        <v>6.9568496E7</v>
+        <v>7.0025502E7</v>
       </c>
       <c r="G318" t="n" s="10">
-        <v>4646172.0</v>
+        <v>4690260.0</v>
       </c>
       <c r="H318" t="n" s="10">
-        <v>6.1116089E7</v>
+        <v>6.1506699E7</v>
       </c>
     </row>
     <row r="319">
@@ -8407,19 +8407,19 @@
         <v>14</v>
       </c>
       <c r="D319" t="n" s="10">
-        <v>5995861.0</v>
+        <v>6030492.0</v>
       </c>
       <c r="E319" t="n" s="10">
-        <v>971034.0</v>
+        <v>973018.0</v>
       </c>
       <c r="F319" t="n" s="10">
-        <v>9.4487046E7</v>
+        <v>9.5284888E7</v>
       </c>
       <c r="G319" t="n" s="10">
-        <v>4756515.0</v>
+        <v>4768785.0</v>
       </c>
       <c r="H319" t="n" s="10">
-        <v>8.8759498E7</v>
+        <v>8.9543085E7</v>
       </c>
     </row>
     <row r="320">
@@ -8430,19 +8430,19 @@
         <v>14</v>
       </c>
       <c r="D320" t="n" s="10">
-        <v>7192814.0</v>
+        <v>7228397.0</v>
       </c>
       <c r="E320" t="n" s="10">
-        <v>4208955.0</v>
+        <v>4205417.0</v>
       </c>
       <c r="F320" t="n" s="10">
-        <v>7.221161E7</v>
+        <v>7.2526056E7</v>
       </c>
       <c r="G320" t="n" s="10">
-        <v>4849822.0</v>
+        <v>4825035.0</v>
       </c>
       <c r="H320" t="n" s="10">
-        <v>6.3152832E7</v>
+        <v>6.3495605E7</v>
       </c>
     </row>
     <row r="321">
@@ -8456,19 +8456,19 @@
         <v>14</v>
       </c>
       <c r="D321" t="n" s="10">
-        <v>5987374.0</v>
+        <v>6007575.0</v>
       </c>
       <c r="E321" t="n" s="10">
-        <v>1037762.0</v>
+        <v>1039725.0</v>
       </c>
       <c r="F321" t="n" s="10">
-        <v>8.3208361E7</v>
+        <v>8.3411742E7</v>
       </c>
       <c r="G321" t="n" s="10">
-        <v>4764539.0</v>
+        <v>4783499.0</v>
       </c>
       <c r="H321" t="n" s="10">
-        <v>7.740606E7</v>
+        <v>7.7588517E7</v>
       </c>
     </row>
     <row r="322">
@@ -8479,19 +8479,19 @@
         <v>14</v>
       </c>
       <c r="D322" t="n" s="10">
-        <v>6792211.0</v>
+        <v>6828242.0</v>
       </c>
       <c r="E322" t="n" s="10">
-        <v>4342867.0</v>
+        <v>4226611.0</v>
       </c>
       <c r="F322" t="n" s="10">
-        <v>6.8473127E7</v>
+        <v>6.8679579E7</v>
       </c>
       <c r="G322" t="n" s="10">
-        <v>4801874.0</v>
+        <v>4826721.0</v>
       </c>
       <c r="H322" t="n" s="10">
-        <v>5.9328385E7</v>
+        <v>5.9626246E7</v>
       </c>
     </row>
     <row r="323">
@@ -8505,19 +8505,19 @@
         <v>14</v>
       </c>
       <c r="D323" t="n" s="10">
-        <v>6138791.0</v>
+        <v>6157678.0</v>
       </c>
       <c r="E323" t="n" s="10">
-        <v>1261996.0</v>
+        <v>1263559.0</v>
       </c>
       <c r="F323" t="n" s="10">
-        <v>1.01539367E8</v>
+        <v>1.01835564E8</v>
       </c>
       <c r="G323" t="n" s="10">
-        <v>5402054.0</v>
+        <v>5412298.0</v>
       </c>
       <c r="H323" t="n" s="10">
-        <v>9.4875316E7</v>
+        <v>9.5159706E7</v>
       </c>
     </row>
     <row r="324">
@@ -8528,19 +8528,19 @@
         <v>14</v>
       </c>
       <c r="D324" t="n" s="10">
-        <v>7469108.0</v>
+        <v>7488781.0</v>
       </c>
       <c r="E324" t="n" s="10">
-        <v>4938265.0</v>
+        <v>5138566.0</v>
       </c>
       <c r="F324" t="n" s="10">
-        <v>7.8186413E7</v>
+        <v>7.8741015E7</v>
       </c>
       <c r="G324" t="n" s="10">
-        <v>5041104.0</v>
+        <v>5063367.0</v>
       </c>
       <c r="H324" t="n" s="10">
-        <v>6.8207044E7</v>
+        <v>6.8539082E7</v>
       </c>
     </row>
     <row r="325">
@@ -8554,19 +8554,19 @@
         <v>14</v>
       </c>
       <c r="D325" t="n" s="10">
-        <v>6301859.0</v>
+        <v>6313966.0</v>
       </c>
       <c r="E325" t="n" s="10">
-        <v>1199729.0</v>
+        <v>1201557.0</v>
       </c>
       <c r="F325" t="n" s="10">
-        <v>1.03587921E8</v>
+        <v>1.03814617E8</v>
       </c>
       <c r="G325" t="n" s="10">
-        <v>5210572.0</v>
+        <v>5218857.0</v>
       </c>
       <c r="H325" t="n" s="10">
-        <v>9.717762E7</v>
+        <v>9.7394203E7</v>
       </c>
     </row>
     <row r="326">
@@ -8577,19 +8577,19 @@
         <v>14</v>
       </c>
       <c r="D326" t="n" s="10">
-        <v>7543928.0</v>
+        <v>7558350.0</v>
       </c>
       <c r="E326" t="n" s="10">
-        <v>5365569.0</v>
+        <v>5359489.0</v>
       </c>
       <c r="F326" t="n" s="10">
-        <v>8.0534559E7</v>
+        <v>8.0807587E7</v>
       </c>
       <c r="G326" t="n" s="10">
-        <v>5797584.0</v>
+        <v>5818883.0</v>
       </c>
       <c r="H326" t="n" s="10">
-        <v>6.9371406E7</v>
+        <v>6.9629215E7</v>
       </c>
     </row>
     <row r="327">
@@ -8603,19 +8603,19 @@
         <v>14</v>
       </c>
       <c r="D327" t="n" s="10">
-        <v>6156987.0</v>
+        <v>6164793.0</v>
       </c>
       <c r="E327" t="n" s="10">
-        <v>1416793.0</v>
+        <v>1418944.0</v>
       </c>
       <c r="F327" t="n" s="10">
-        <v>1.03915631E8</v>
+        <v>1.04192984E8</v>
       </c>
       <c r="G327" t="n" s="10">
-        <v>5282192.0</v>
+        <v>5289785.0</v>
       </c>
       <c r="H327" t="n" s="10">
-        <v>9.7216646E7</v>
+        <v>9.7484255E7</v>
       </c>
     </row>
     <row r="328">
@@ -8626,19 +8626,19 @@
         <v>14</v>
       </c>
       <c r="D328" t="n" s="10">
-        <v>7661089.0</v>
+        <v>7676215.0</v>
       </c>
       <c r="E328" t="n" s="10">
-        <v>5266889.0</v>
+        <v>5269570.0</v>
       </c>
       <c r="F328" t="n" s="10">
-        <v>8.2612308E7</v>
+        <v>8.2798934E7</v>
       </c>
       <c r="G328" t="n" s="10">
-        <v>5893275.0</v>
+        <v>5918872.0</v>
       </c>
       <c r="H328" t="n" s="10">
-        <v>7.1452144E7</v>
+        <v>7.1610492E7</v>
       </c>
     </row>
     <row r="329">
@@ -8652,19 +8652,19 @@
         <v>14</v>
       </c>
       <c r="D329" t="n" s="10">
-        <v>5840634.0</v>
+        <v>5903619.0</v>
       </c>
       <c r="E329" t="n" s="10">
-        <v>1319595.0</v>
+        <v>1324192.0</v>
       </c>
       <c r="F329" t="n" s="10">
-        <v>9.3295383E7</v>
+        <v>9.3739482E7</v>
       </c>
       <c r="G329" t="n" s="10">
-        <v>4889937.0</v>
+        <v>4894244.0</v>
       </c>
       <c r="H329" t="n" s="10">
-        <v>8.7085851E7</v>
+        <v>8.7521046E7</v>
       </c>
     </row>
     <row r="330">
@@ -8675,19 +8675,19 @@
         <v>14</v>
       </c>
       <c r="D330" t="n" s="10">
-        <v>7094920.0</v>
+        <v>7155036.0</v>
       </c>
       <c r="E330" t="n" s="10">
-        <v>5276586.0</v>
+        <v>5286357.0</v>
       </c>
       <c r="F330" t="n" s="10">
-        <v>7.4116351E7</v>
+        <v>7.4929634E7</v>
       </c>
       <c r="G330" t="n" s="10">
-        <v>5348807.0</v>
+        <v>5353582.0</v>
       </c>
       <c r="H330" t="n" s="10">
-        <v>6.3490958E7</v>
+        <v>6.4289694E7</v>
       </c>
     </row>
     <row r="331" ht="50.6" customHeight="true">
@@ -8706,19 +8706,19 @@
         <v>14</v>
       </c>
       <c r="D332" t="n" s="10">
-        <v>5608567.0</v>
+        <v>5625585.0</v>
       </c>
       <c r="E332" t="n" s="10">
-        <v>1499912.0</v>
+        <v>1499442.0</v>
       </c>
       <c r="F332" t="n" s="10">
-        <v>9.0770105E7</v>
+        <v>9.0917057E7</v>
       </c>
       <c r="G332" t="n" s="10">
-        <v>5461301.0</v>
+        <v>5474325.0</v>
       </c>
       <c r="H332" t="n" s="10">
-        <v>8.3808892E7</v>
+        <v>8.3943289E7</v>
       </c>
     </row>
     <row r="333">
@@ -8729,19 +8729,19 @@
         <v>14</v>
       </c>
       <c r="D333" t="n" s="10">
-        <v>6833558.0</v>
+        <v>6865033.0</v>
       </c>
       <c r="E333" t="n" s="10">
-        <v>6185402.0</v>
+        <v>6185998.0</v>
       </c>
       <c r="F333" t="n" s="10">
-        <v>7.2785498E7</v>
+        <v>7.2949855E7</v>
       </c>
       <c r="G333" t="n" s="10">
-        <v>5628311.0</v>
+        <v>5666927.0</v>
       </c>
       <c r="H333" t="n" s="10">
-        <v>6.0971785E7</v>
+        <v>6.109693E7</v>
       </c>
     </row>
     <row r="334">
@@ -8755,19 +8755,19 @@
         <v>14</v>
       </c>
       <c r="D334" t="n" s="10">
-        <v>5874587.0</v>
+        <v>5903378.0</v>
       </c>
       <c r="E334" t="n" s="10">
-        <v>1350979.0</v>
+        <v>1351440.0</v>
       </c>
       <c r="F334" t="n" s="10">
-        <v>9.9589292E7</v>
+        <v>9.9865303E7</v>
       </c>
       <c r="G334" t="n" s="10">
-        <v>5437112.0</v>
+        <v>5472408.0</v>
       </c>
       <c r="H334" t="n" s="10">
-        <v>9.2801201E7</v>
+        <v>9.3041455E7</v>
       </c>
     </row>
     <row r="335">
@@ -8778,19 +8778,19 @@
         <v>14</v>
       </c>
       <c r="D335" t="n" s="10">
-        <v>7041485.0</v>
+        <v>7075633.0</v>
       </c>
       <c r="E335" t="n" s="10">
-        <v>6103689.0</v>
+        <v>6107145.0</v>
       </c>
       <c r="F335" t="n" s="10">
-        <v>7.7439152E7</v>
+        <v>7.7889847E7</v>
       </c>
       <c r="G335" t="n" s="10">
-        <v>6288481.0</v>
+        <v>6314772.0</v>
       </c>
       <c r="H335" t="n" s="10">
-        <v>6.5046981E7</v>
+        <v>6.546793E7</v>
       </c>
     </row>
     <row r="336">
@@ -8804,19 +8804,19 @@
         <v>14</v>
       </c>
       <c r="D336" t="n" s="10">
-        <v>6858653.0</v>
+        <v>6901816.0</v>
       </c>
       <c r="E336" t="n" s="10">
-        <v>1440337.0</v>
+        <v>1444873.0</v>
       </c>
       <c r="F336" t="n" s="10">
-        <v>1.17739309E8</v>
+        <v>1.18393398E8</v>
       </c>
       <c r="G336" t="n" s="10">
-        <v>6589336.0</v>
+        <v>6651306.0</v>
       </c>
       <c r="H336" t="n" s="10">
-        <v>1.09709636E8</v>
+        <v>1.10297219E8</v>
       </c>
     </row>
     <row r="337">
@@ -8827,19 +8827,19 @@
         <v>14</v>
       </c>
       <c r="D337" t="n" s="10">
-        <v>8356022.0</v>
+        <v>8547427.0</v>
       </c>
       <c r="E337" t="n" s="10">
-        <v>6866293.0</v>
+        <v>6871984.0</v>
       </c>
       <c r="F337" t="n" s="10">
-        <v>9.2756923E7</v>
+        <v>9.3550638E7</v>
       </c>
       <c r="G337" t="n" s="10">
-        <v>7831476.0</v>
+        <v>7881597.0</v>
       </c>
       <c r="H337" t="n" s="10">
-        <v>7.8059154E7</v>
+        <v>7.8797058E7</v>
       </c>
     </row>
     <row r="338">
@@ -8853,19 +8853,19 @@
         <v>14</v>
       </c>
       <c r="D338" t="n" s="10">
-        <v>6006988.0</v>
+        <v>6064483.0</v>
       </c>
       <c r="E338" t="n" s="10">
-        <v>1256561.0</v>
+        <v>1263392.0</v>
       </c>
       <c r="F338" t="n" s="10">
-        <v>1.03418646E8</v>
+        <v>1.04282527E8</v>
       </c>
       <c r="G338" t="n" s="10">
-        <v>6138680.0</v>
+        <v>6202860.0</v>
       </c>
       <c r="H338" t="n" s="10">
-        <v>9.6023405E7</v>
+        <v>9.6816275E7</v>
       </c>
     </row>
     <row r="339">
@@ -8876,19 +8876,19 @@
         <v>14</v>
       </c>
       <c r="D339" t="n" s="10">
-        <v>7531948.0</v>
+        <v>7703336.0</v>
       </c>
       <c r="E339" t="n" s="10">
-        <v>6385759.0</v>
+        <v>6393303.0</v>
       </c>
       <c r="F339" t="n" s="10">
-        <v>8.3230421E7</v>
+        <v>8.4198986E7</v>
       </c>
       <c r="G339" t="n" s="10">
-        <v>8050663.0</v>
+        <v>8103890.0</v>
       </c>
       <c r="H339" t="n" s="10">
-        <v>6.8793999E7</v>
+        <v>6.9701793E7</v>
       </c>
     </row>
     <row r="340">
@@ -8902,19 +8902,19 @@
         <v>14</v>
       </c>
       <c r="D340" t="n" s="10">
-        <v>6333400.0</v>
+        <v>6404950.0</v>
       </c>
       <c r="E340" t="n" s="10">
-        <v>1314599.0</v>
+        <v>1324186.0</v>
       </c>
       <c r="F340" t="n" s="10">
-        <v>1.00116601E8</v>
+        <v>1.01196469E8</v>
       </c>
       <c r="G340" t="n" s="10">
-        <v>6235578.0</v>
+        <v>6317620.0</v>
       </c>
       <c r="H340" t="n" s="10">
-        <v>9.2566424E7</v>
+        <v>9.3554663E7</v>
       </c>
     </row>
     <row r="341">
@@ -8925,19 +8925,19 @@
         <v>14</v>
       </c>
       <c r="D341" t="n" s="10">
-        <v>7628323.0</v>
+        <v>7848190.0</v>
       </c>
       <c r="E341" t="n" s="10">
-        <v>6663054.0</v>
+        <v>6677900.0</v>
       </c>
       <c r="F341" t="n" s="10">
-        <v>8.284522E7</v>
+        <v>8.4062673E7</v>
       </c>
       <c r="G341" t="n" s="10">
-        <v>8470083.0</v>
+        <v>8582227.0</v>
       </c>
       <c r="H341" t="n" s="10">
-        <v>6.7712082E7</v>
+        <v>6.8802547E7</v>
       </c>
     </row>
     <row r="342">
@@ -8951,19 +8951,19 @@
         <v>14</v>
       </c>
       <c r="D342" t="n" s="10">
-        <v>6253271.0</v>
+        <v>6378278.0</v>
       </c>
       <c r="E342" t="n" s="10">
-        <v>1360201.0</v>
+        <v>1383791.0</v>
       </c>
       <c r="F342" t="n" s="10">
-        <v>1.07851583E8</v>
+        <v>1.09729313E8</v>
       </c>
       <c r="G342" t="n" s="10">
-        <v>6465587.0</v>
+        <v>6594012.0</v>
       </c>
       <c r="H342" t="n" s="10">
-        <v>1.00025795E8</v>
+        <v>1.0175151E8</v>
       </c>
     </row>
     <row r="343">
@@ -8974,19 +8974,19 @@
         <v>14</v>
       </c>
       <c r="D343" t="n" s="10">
-        <v>7334690.0</v>
+        <v>7776845.0</v>
       </c>
       <c r="E343" t="n" s="10">
-        <v>7259464.0</v>
+        <v>7344573.0</v>
       </c>
       <c r="F343" t="n" s="10">
-        <v>8.6905879E7</v>
+        <v>8.9033159E7</v>
       </c>
       <c r="G343" t="n" s="10">
-        <v>8074036.0</v>
+        <v>8281285.0</v>
       </c>
       <c r="H343" t="n" s="10">
-        <v>7.1572379E7</v>
+        <v>7.3407301E7</v>
       </c>
     </row>
     <row r="344">
@@ -9000,19 +9000,19 @@
         <v>14</v>
       </c>
       <c r="D344" t="n" s="10">
-        <v>6246035.0</v>
+        <v>6360029.0</v>
       </c>
       <c r="E344" t="n" s="10">
-        <v>1592917.0</v>
+        <v>1609485.0</v>
       </c>
       <c r="F344" t="n" s="10">
-        <v>1.04480532E8</v>
+        <v>1.0607227E8</v>
       </c>
       <c r="G344" t="n" s="10">
-        <v>6277726.0</v>
+        <v>6365363.0</v>
       </c>
       <c r="H344" t="n" s="10">
-        <v>9.6609889E7</v>
+        <v>9.8097422E7</v>
       </c>
     </row>
     <row r="345">
@@ -9023,19 +9023,19 @@
         <v>14</v>
       </c>
       <c r="D345" t="n" s="10">
-        <v>7110945.0</v>
+        <v>7315484.0</v>
       </c>
       <c r="E345" t="n" s="10">
-        <v>7304147.0</v>
+        <v>7360410.0</v>
       </c>
       <c r="F345" t="n" s="10">
-        <v>8.2233699E7</v>
+        <v>8.3923667E7</v>
       </c>
       <c r="G345" t="n" s="10">
-        <v>8139607.0</v>
+        <v>8278919.0</v>
       </c>
       <c r="H345" t="n" s="10">
-        <v>6.6789945E7</v>
+        <v>6.8284338E7</v>
       </c>
     </row>
     <row r="346">
@@ -9048,20 +9048,20 @@
       <c r="C346" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D346" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="E346" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F346" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G346" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H346" t="s" s="10">
-        <v>40</v>
+      <c r="D346" t="n" s="10">
+        <v>6327449.0</v>
+      </c>
+      <c r="E346" t="n" s="10">
+        <v>1657107.0</v>
+      </c>
+      <c r="F346" t="n" s="10">
+        <v>9.5133282E7</v>
+      </c>
+      <c r="G346" t="n" s="10">
+        <v>6184054.0</v>
+      </c>
+      <c r="H346" t="n" s="10">
+        <v>8.7292121E7</v>
       </c>
     </row>
     <row r="347">
@@ -9071,20 +9071,20 @@
       <c r="C347" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D347" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="E347" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F347" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G347" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H347" t="s" s="10">
-        <v>40</v>
+      <c r="D347" t="n" s="10">
+        <v>7313405.0</v>
+      </c>
+      <c r="E347" t="n" s="10">
+        <v>7697252.0</v>
+      </c>
+      <c r="F347" t="n" s="10">
+        <v>7.9822758E7</v>
+      </c>
+      <c r="G347" t="n" s="10">
+        <v>8066253.0</v>
+      </c>
+      <c r="H347" t="n" s="10">
+        <v>6.4059253E7</v>
       </c>
     </row>
     <row r="348">
@@ -9097,20 +9097,20 @@
       <c r="C348" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D348" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="E348" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F348" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G348" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H348" t="s" s="10">
-        <v>40</v>
+      <c r="D348" t="n" s="10">
+        <v>6601251.0</v>
+      </c>
+      <c r="E348" t="n" s="10">
+        <v>1792541.0</v>
+      </c>
+      <c r="F348" t="n" s="10">
+        <v>1.06717004E8</v>
+      </c>
+      <c r="G348" t="n" s="10">
+        <v>6865509.0</v>
+      </c>
+      <c r="H348" t="n" s="10">
+        <v>9.8058954E7</v>
       </c>
     </row>
     <row r="349">
@@ -9120,20 +9120,20 @@
       <c r="C349" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D349" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="E349" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F349" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G349" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H349" t="s" s="10">
-        <v>40</v>
+      <c r="D349" t="n" s="10">
+        <v>7442888.0</v>
+      </c>
+      <c r="E349" t="n" s="10">
+        <v>8305695.0</v>
+      </c>
+      <c r="F349" t="n" s="10">
+        <v>8.6443771E7</v>
+      </c>
+      <c r="G349" t="n" s="10">
+        <v>7886022.0</v>
+      </c>
+      <c r="H349" t="n" s="10">
+        <v>7.0252055E7</v>
       </c>
     </row>
     <row r="350">
@@ -9146,20 +9146,20 @@
       <c r="C350" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D350" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="E350" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F350" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G350" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H350" t="s" s="10">
-        <v>40</v>
+      <c r="D350" t="n" s="10">
+        <v>6772178.0</v>
+      </c>
+      <c r="E350" t="n" s="10">
+        <v>1955841.0</v>
+      </c>
+      <c r="F350" t="n" s="10">
+        <v>1.09857216E8</v>
+      </c>
+      <c r="G350" t="n" s="10">
+        <v>7239135.0</v>
+      </c>
+      <c r="H350" t="n" s="10">
+        <v>1.0066224E8</v>
       </c>
     </row>
     <row r="351">
@@ -9169,20 +9169,20 @@
       <c r="C351" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D351" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="E351" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F351" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G351" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H351" t="s" s="10">
-        <v>40</v>
+      <c r="D351" t="n" s="10">
+        <v>7684589.0</v>
+      </c>
+      <c r="E351" t="n" s="10">
+        <v>1.0250544E7</v>
+      </c>
+      <c r="F351" t="n" s="10">
+        <v>9.2408683E7</v>
+      </c>
+      <c r="G351" t="n" s="10">
+        <v>8046583.0</v>
+      </c>
+      <c r="H351" t="n" s="10">
+        <v>7.4111557E7</v>
       </c>
     </row>
     <row r="352">
@@ -9318,7 +9318,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:14:58&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:10:56&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>